--- a/doors-detector/results/house10_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house10_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7876966609762833</v>
+        <v>0.7998867818386346</v>
       </c>
       <c r="F2" t="n">
         <v>720</v>
       </c>
       <c r="G2" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H2" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2104579012576782</v>
+        <v>0.2275786020857228</v>
       </c>
       <c r="F3" t="n">
         <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5768657954628235</v>
+        <v>0.5671909355820736</v>
       </c>
       <c r="F4" t="n">
         <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8224529939614682</v>
+        <v>0.7826312327283286</v>
       </c>
       <c r="F5" t="n">
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="H5" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5379433475738817</v>
+        <v>0.6263504285326342</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
         <v>83</v>
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7011312040645504</v>
+        <v>0.7015374104396683</v>
       </c>
       <c r="F7" t="n">
         <v>93</v>
       </c>
       <c r="G7" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7688779974301466</v>
+        <v>0.7690660115967638</v>
       </c>
       <c r="F8" t="n">
         <v>720</v>
       </c>
       <c r="G8" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H8" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6908225591781647</v>
+        <v>0.7399876197151389</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6842082857123585</v>
+        <v>0.6717207865620617</v>
       </c>
       <c r="F10" t="n">
         <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H10" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7452796493798922</v>
+        <v>0.7871934787205878</v>
       </c>
       <c r="F11" t="n">
         <v>720</v>
       </c>
       <c r="G11" t="n">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="H11" t="n">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7003425913743785</v>
+        <v>0.7404071159915464</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7111588196006122</v>
+        <v>0.7264975318105492</v>
       </c>
       <c r="F13" t="n">
         <v>93</v>
@@ -856,7 +856,7 @@
         <v>80</v>
       </c>
       <c r="H13" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7497447193565736</v>
+        <v>0.8071350636103209</v>
       </c>
       <c r="F14" t="n">
         <v>720</v>
       </c>
       <c r="G14" t="n">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="H14" t="n">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7155287717268045</v>
+        <v>0.7926423177833554</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
@@ -920,7 +920,7 @@
         <v>73</v>
       </c>
       <c r="H15" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7428718327693261</v>
+        <v>0.781886109104475</v>
       </c>
       <c r="F16" t="n">
         <v>93</v>
       </c>
       <c r="G16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7893765757114359</v>
+        <v>0.7370036269923405</v>
       </c>
       <c r="F17" t="n">
         <v>720</v>
       </c>
       <c r="G17" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="H17" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7729262853192062</v>
+        <v>0.8449664810304739</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7847824410469648</v>
+        <v>0.8300011715455292</v>
       </c>
       <c r="F19" t="n">
         <v>93</v>
       </c>
       <c r="G19" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H19" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
